--- a/Resources/Netflix_data_clean.xlsx
+++ b/Resources/Netflix_data_clean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f258f04a5e73b62/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aishy/Documents/Project1/Pandemic-Watching/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47140C42-F9D9-BE43-8CBC-66C8631CB7C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5371B3-28CA-5E47-BEDE-0678B2A36764}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2249F48C-4DC3-2646-B88E-8095E6095568}"/>
+    <workbookView xWindow="4360" yWindow="3300" windowWidth="28820" windowHeight="12580" xr2:uid="{2249F48C-4DC3-2646-B88E-8095E6095568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,24 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Location </t>
+    <t>Total Subs(USCAN)</t>
   </si>
   <si>
-    <t>USCAN</t>
+    <t>Revenue(World)</t>
   </si>
   <si>
-    <t xml:space="preserve">world </t>
+    <t>Total Subs(World)</t>
   </si>
   <si>
-    <t>Revenue(M)</t>
-  </si>
-  <si>
-    <t>Total Subscribers(M)</t>
+    <t>Revenue(USCAN)</t>
   </si>
 </sst>
 </file>
@@ -112,13 +109,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -434,32 +433,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCCB278-42FF-5E42-83E2-F236EB3F00A6}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>43555</v>
       </c>
@@ -469,11 +472,14 @@
       <c r="C2" s="2">
         <v>4521</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D2" s="1">
+        <v>148.9</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>43646</v>
       </c>
@@ -483,11 +489,14 @@
       <c r="C3" s="2">
         <v>4923</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" s="1">
+        <v>151.6</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>43738</v>
       </c>
@@ -497,11 +506,14 @@
       <c r="C4" s="2">
         <v>5245</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4" s="1">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>43830</v>
       </c>
@@ -511,177 +523,164 @@
       <c r="C5" s="2">
         <v>5467</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D5" s="1">
+        <v>167.3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>43555</v>
+        <v>43921</v>
       </c>
       <c r="B6" s="1">
-        <v>148.9</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1801</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5768</v>
+      </c>
+      <c r="D6" s="1">
+        <v>182.9</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>43646</v>
+        <v>44012</v>
       </c>
       <c r="B7" s="1">
-        <v>151.6</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1820</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6148</v>
+      </c>
+      <c r="D7" s="1">
+        <v>192.9</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>43738</v>
+        <v>44104</v>
       </c>
       <c r="B8" s="1">
-        <v>158.30000000000001</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1893</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6436</v>
+      </c>
+      <c r="D8" s="1">
+        <v>195.2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>43830</v>
+        <v>44196</v>
       </c>
       <c r="B9" s="1">
-        <v>167.3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1981</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>43921</v>
-      </c>
-      <c r="B10" s="1">
-        <v>70</v>
-      </c>
-      <c r="C10" s="2">
-        <v>5768</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>44012</v>
-      </c>
-      <c r="B11" s="1">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="C11" s="2">
-        <v>6148</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>44104</v>
-      </c>
-      <c r="B12" s="1">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="C12" s="2">
-        <v>6436</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>44196</v>
-      </c>
-      <c r="B13" s="1">
         <v>73.900000000000006</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C9" s="4">
         <v>6644</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>43921</v>
-      </c>
-      <c r="B14" s="1">
-        <v>182.9</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2207</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>44012</v>
-      </c>
-      <c r="B15" s="1">
-        <v>192.9</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2462</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>44104</v>
-      </c>
-      <c r="B16" s="1">
-        <v>95.2</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2654</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>44196</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="D9" s="1">
         <v>203.7</v>
       </c>
-      <c r="C17" s="4">
+      <c r="E9" s="4">
         <v>2822</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/Netflix_data_clean.xlsx
+++ b/Resources/Netflix_data_clean.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aishy/Documents/Project1/Pandemic-Watching/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aishy/Documents/project-final/Pandemic-Watching/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5371B3-28CA-5E47-BEDE-0678B2A36764}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BD56E7-CC65-7D43-80C0-CAD42D62A2D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="3300" windowWidth="28820" windowHeight="12580" xr2:uid="{2249F48C-4DC3-2646-B88E-8095E6095568}"/>
+    <workbookView xWindow="5120" yWindow="4600" windowWidth="28820" windowHeight="12580" xr2:uid="{2249F48C-4DC3-2646-B88E-8095E6095568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,8 +46,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -109,15 +110,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -433,38 +437,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCCB278-42FF-5E42-83E2-F236EB3F00A6}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.6640625" style="10"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>43555</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>43525</v>
       </c>
       <c r="B2" s="1">
         <v>66.599999999999994</v>
@@ -475,13 +480,14 @@
       <c r="D2" s="1">
         <v>148.9</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>1801</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>43646</v>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>43617</v>
       </c>
       <c r="B3" s="1">
         <v>66.5</v>
@@ -492,13 +498,14 @@
       <c r="D3" s="1">
         <v>151.6</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>1820</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>43738</v>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>44458</v>
       </c>
       <c r="B4" s="1">
         <v>67.099999999999994</v>
@@ -509,12 +516,13 @@
       <c r="D4" s="1">
         <v>158.30000000000001</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>1893</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
         <v>43830</v>
       </c>
       <c r="B5" s="1">
@@ -529,9 +537,10 @@
       <c r="E5" s="2">
         <v>1981</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
         <v>43921</v>
       </c>
       <c r="B6" s="1">
@@ -543,12 +552,13 @@
       <c r="D6" s="1">
         <v>182.9</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>2207</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <v>44012</v>
       </c>
       <c r="B7" s="1">
@@ -560,12 +570,13 @@
       <c r="D7" s="1">
         <v>192.9</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>2462</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
         <v>44104</v>
       </c>
       <c r="B8" s="1">
@@ -577,110 +588,116 @@
       <c r="D8" s="1">
         <v>195.2</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>2654</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
         <v>44196</v>
       </c>
       <c r="B9" s="1">
         <v>73.900000000000006</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>6644</v>
       </c>
       <c r="D9" s="1">
         <v>203.7</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>2822</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/Netflix_data_clean.xlsx
+++ b/Resources/Netflix_data_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aishy/Documents/project-final/Pandemic-Watching/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BD56E7-CC65-7D43-80C0-CAD42D62A2D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D30659-EBE6-B54A-8392-12E5AF07EB9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5120" yWindow="4600" windowWidth="28820" windowHeight="12580" xr2:uid="{2249F48C-4DC3-2646-B88E-8095E6095568}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -118,10 +118,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,7 +469,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <v>43525</v>
+        <v>43554</v>
       </c>
       <c r="B2" s="1">
         <v>66.599999999999994</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <v>43617</v>
+        <v>43646</v>
       </c>
       <c r="B3" s="1">
         <v>66.5</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
-        <v>44458</v>
+        <v>43738</v>
       </c>
       <c r="B4" s="1">
         <v>67.099999999999994</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
-        <v>43830</v>
+        <v>43829</v>
       </c>
       <c r="B5" s="1">
         <v>67.7</v>
